--- a/product/LichSuGiai.xlsx
+++ b/product/LichSuGiai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="抽奖结果" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,19 +403,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="B4" t="str">
-        <v>Chử Sơn Hoà</v>
+        <v>Trần Ngọc Tuyển</v>
       </c>
       <c r="C4" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D4" t="str">
-        <v>../img/PhongPTPM1/ChuSonHoa.jpg</v>
+        <v>../img/PhongDSTK/TranNgocTuyen.JPG</v>
       </c>
       <c r="E4" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="5">
@@ -425,16 +425,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="B6" t="str">
-        <v>Nguyễn Thanh Huyền</v>
+        <v>Nguyễn Văn Thành</v>
       </c>
       <c r="C6" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D6" t="str">
-        <v>../img/PhongPTPM2/NguyenThanhHuyen.jpg</v>
+        <v>../img/PhongTinhCuoc/NguyenVanThanh.jpg</v>
       </c>
       <c r="E6" t="str">
         <v>Chuyên viên</v>
@@ -447,33 +447,33 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="B8" t="str">
-        <v>Nguyễn Kim Hiền</v>
+        <v>Chu Đức Hiệp</v>
       </c>
       <c r="C8" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D8" t="str">
-        <v>../img/PhongTonghop/NguyenKimHien.jpg</v>
+        <v>../img/PhongKyThuat/ChuDucHiep.jpg</v>
       </c>
       <c r="E8" t="str">
-        <v>Chuyên viên</v>
+        <v>Trưởng phòng</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B9" t="str">
-        <v>Đỗ Hải Long</v>
+        <v>Lê Anh Sơn</v>
       </c>
       <c r="C9" t="str">
-        <v>BU SMEs</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D9" t="str">
-        <v>../img/BUSMEs/DoHaiLong.jpg</v>
+        <v>../img/PhongDSTK/LeAnhSon.jpg</v>
       </c>
       <c r="E9" t="str">
         <v>Chuyên viên</v>
@@ -486,53 +486,50 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B11" t="str">
-        <v>Trần Quang Khiêm</v>
+        <v>Ngô Minh Quang</v>
       </c>
       <c r="C11" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D11" t="str">
-        <v>../img/PhongKinhdoanh/TranQuangKhiem.jpg</v>
+        <v>../img/PhongDSTK/NgoMinhQuang.jpg</v>
       </c>
       <c r="E11" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F11" t="str">
-        <v>x</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="B12" t="str">
-        <v>Nguyễn Quốc Huy</v>
+        <v>Lê Thị Ngọc</v>
       </c>
       <c r="C12" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D12" t="str">
-        <v>../img/PhongPTPM1/NguyenQuocHuy.jpg</v>
+        <v>../img/PhongKeToan/LeThiNgoc-KTN.jpg</v>
       </c>
       <c r="E12" t="str">
-        <v>Phó phòng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B13" t="str">
-        <v>Lê Anh Sơn</v>
+        <v>Phùng Văn Hiệp</v>
       </c>
       <c r="C13" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D13" t="str">
-        <v>../img/BUCRM/LeAnhSon.jpg</v>
+        <v>../img/PhongTinhCuoc/PhungVanHiep.jpg</v>
       </c>
       <c r="E13" t="str">
         <v>Chuyên viên</v>
@@ -545,36 +542,33 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="B15" t="str">
-        <v>Trần Minh Đạt</v>
+        <v>Nguyễn Bá Sơn</v>
       </c>
       <c r="C15" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D15" t="str">
-        <v>../img/PhongPTPM2/TranMinhDat.jpg</v>
+        <v>../img/PhongKTMB/NguyenBaSon.jpg</v>
       </c>
       <c r="E15" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G15" t="str">
-        <v>x</v>
+        <v xml:space="preserve">Chuyên viên </v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="B16" t="str">
-        <v>Phùng Thị Chung</v>
+        <v>Lê Thị Ngọc</v>
       </c>
       <c r="C16" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D16" t="str">
-        <v>../img/PhongTonghop/PhungThiChung.jpg</v>
+        <v>../img/PhongTinhCuoc/LeThiNgoc-TC.jpg</v>
       </c>
       <c r="E16" t="str">
         <v>Chuyên viên</v>
@@ -582,93 +576,84 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B17" t="str">
-        <v>Nguyễn Huy Hoàng</v>
+        <v>Nguyễn Thái Bình</v>
       </c>
       <c r="C17" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D17" t="str">
-        <v>../img/PhongBigData/NguyenHuyHoang.jpg</v>
+        <v>../img/PhongKTMN/NguyenThaiBinh.jpg</v>
       </c>
       <c r="E17" t="str">
-        <v>Chuyên viên</v>
+        <v>Trưởng phòng</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="B18" t="str">
-        <v>Triệu Nguyễn Quyết</v>
+        <v>Nguyễn Văn Tạo</v>
       </c>
       <c r="C18" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D18" t="str">
-        <v>../img/PhongTonghop/TrieuNguyenQuyet.jpg</v>
+        <v>../img/PhongKTMB/NguyenVanTao.png</v>
       </c>
       <c r="E18" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F18" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="B19" t="str">
-        <v>Đồng Ngân Giang</v>
+        <v>Lê Văn Bình</v>
       </c>
       <c r="C19" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D19" t="str">
-        <v>../img/PhongKinhdoanh/DongNganGiang.jpg</v>
+        <v>../img/PhongDSTK/LeVanBinh.jpg</v>
       </c>
       <c r="E19" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="G19" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="B20" t="str">
-        <v>Phạm Minh Duy</v>
+        <v>Dương Minh Thọ</v>
       </c>
       <c r="C20" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D20" t="str">
-        <v>../img/PhongPTPM1/PhamMinhDuy.jpg</v>
+        <v>../img/PhongKyThuat/DuongMinhTho.jpg</v>
       </c>
       <c r="E20" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G20" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="B21" t="str">
-        <v>Phạm Quang Trung</v>
+        <v>Nguyễn Thị Thanh Xuân</v>
       </c>
       <c r="C21" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D21" t="str">
-        <v>../img/PhongTonghop/PhamQuangTrung.jpg</v>
+        <v>../img/PhongTinhCuoc/NguyenThiThanhXuan.jpg</v>
       </c>
       <c r="E21" t="str">
         <v>Chuyên viên</v>
@@ -676,56 +661,50 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B22" t="str">
-        <v>Vũ Nam Anh</v>
+        <v>Trần Thanh Quang</v>
       </c>
       <c r="C22" t="str">
-        <v>Phòng PTPM2</v>
+        <v xml:space="preserve">Công ty Cổ phần Công nghệ Công nghiệp Bưu chính Viễn thông </v>
       </c>
       <c r="D22" t="str">
-        <v>../img/PhongPTPM2/VuNamAnh.jpg</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Chuyên viên</v>
+        <v>../img/KhachMoi/TranThanhQuang.jpg</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B23" t="str">
-        <v>Đinh Anh Đức</v>
+        <v>Nghiêm Văn Triệu</v>
       </c>
       <c r="C23" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D23" t="str">
-        <v>../img/PhongPTPM1/DinhAnhDuc.jpg</v>
+        <v>../img/PhongPTDL/NghiemVanTrieu.jpg</v>
       </c>
       <c r="E23" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F23" t="str">
-        <v>x</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
-        <v>Lê Văn Hùng</v>
+        <v>Nguyễn Bích Thủy</v>
       </c>
       <c r="C24" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D24" t="str">
-        <v>../img/PhongPTPM2/LeVanHung.jpg</v>
+        <v>../img/PhongKeToan/NguyenBichThuy.jpg</v>
       </c>
       <c r="E24" t="str">
-        <v>Tổ trưởng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="25">
@@ -735,289 +714,265 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="B26" t="str">
-        <v>Nguyễn Thúc Cương</v>
+        <v>Thái Đình Giang Nam</v>
       </c>
       <c r="C26" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D26" t="str">
-        <v>../img/PhongBigData/NguyenThucCuong.jpg</v>
+        <v>../img/PhongKTMN/ThaiDinhGiangNam.JPG</v>
       </c>
       <c r="E26" t="str">
-        <v>Trưởng Phòng</v>
+        <v xml:space="preserve">Chuyên viên </v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B27" t="str">
-        <v>Đỗ Thị Thu Huyền</v>
+        <v>Trần Quốc Việt</v>
       </c>
       <c r="C27" t="str">
-        <v>Phòng Big Data</v>
+        <v>Công ty Cổ phần Công nghệ Truyền thông DTS</v>
       </c>
       <c r="D27" t="str">
-        <v>../img/PhongBigData/DoThiThuHuyen.jpg</v>
+        <v>../img/KhachMoi/TranQuocViet.jpg</v>
       </c>
       <c r="E27" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F27" t="str">
-        <v>x</v>
+        <v>Phó Tổng giám đốc</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="B28" t="str">
-        <v>Lê Việt Anh</v>
+        <v>Đào Hồng Điệp</v>
       </c>
       <c r="C28" t="str">
-        <v>Phòng Kế toán</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D28" t="str">
-        <v>../img/PhongKetoan/LeVietAnh.jpg</v>
+        <v>../img/PhongTongHop/DaoHongDiep.jpg</v>
       </c>
       <c r="E28" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="B29" t="str">
-        <v>Đỗ Xuân Thắng</v>
+        <v>Nguyễn Mạnh Trường</v>
       </c>
       <c r="C29" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D29" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/DoXuanThang.jpg</v>
+        <v>../img/PhongKyThuat/NguyenManhTruong.jpg</v>
       </c>
       <c r="E29" t="str">
-        <v>Trưởng ban Thư ký Hội đồng thành viên</v>
-      </c>
-      <c r="G29" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="B30" t="str">
-        <v>Phạm Văn Đại</v>
+        <v>Nguyễn Cảnh Vinh</v>
       </c>
       <c r="C30" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D30" t="str">
-        <v>../img/PhongKinhdoanh/PhamVanDai.jpg</v>
+        <v>../img/PhongDSTK/NguyenCanhVinh.jpg</v>
       </c>
       <c r="E30" t="str">
-        <v>Thử việc</v>
-      </c>
-      <c r="G30" t="str">
-        <v>x</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B31" t="str">
-        <v>Hỗ Hữu Quang</v>
+        <v>Lã Công Huấn</v>
       </c>
       <c r="C31" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Tổng công ty Viễn thông MobiFone</v>
       </c>
       <c r="D31" t="str">
-        <v>../img/PhongPTPM1/HoHuuQuang.jpg</v>
+        <v>../img/KhachMoi/LaCongHuan.jpg</v>
       </c>
       <c r="E31" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó trưởng ban Tuyên giáo Đảng ủy</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="B32" t="str">
-        <v>Lê Thùy Linh</v>
+        <v>Đinh Tiến Trung</v>
       </c>
       <c r="C32" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D32" t="str">
-        <v>../img/PhongTonghop/LeThuyLinh.jpg</v>
+        <v>../img/PhongKTMB/DinhTienTrung.jpg</v>
       </c>
       <c r="E32" t="str">
-        <v>Tổ trưởng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>305</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Nguyễn Diệu Linh</v>
+        <v>242</v>
       </c>
       <c r="C33" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Công ty Cổ phần TELSOFT</v>
       </c>
       <c r="D33" t="str">
-        <v>../img/PhongTonghop/NguyenDieuLinh.jpg</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Chuyên viên</v>
+        <v>../img/KhachMoi/KhongAnh.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B34" t="str">
-        <v>Lều Thị Thùy</v>
+        <v>Hồ Hữu Quang</v>
       </c>
       <c r="C34" t="str">
-        <v>BU SMEs</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D34" t="str">
-        <v>../img/BUSMEs/LeuThiThuy.jpg</v>
+        <v>../img/PhongDSTK/HoHuuQuang.jpg</v>
       </c>
       <c r="E34" t="str">
-        <v>Trưởng BU</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="B35" t="str">
-        <v>Nguyễn Thị Hương</v>
+        <v>Mai Phương Liên</v>
       </c>
       <c r="C35" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D35" t="str">
-        <v>../img/PhongTonghop/NguyenThiHuong.jpg</v>
+        <v>../img/PhongDSTK/MaiPhuongLien.jpg</v>
       </c>
       <c r="E35" t="str">
-        <v>Tổ trưởng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="B36" t="str">
-        <v>Hoàng Sỹ Toàn</v>
+        <v>Đoàn Trung Hiếu</v>
       </c>
       <c r="C36" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D36" t="str">
-        <v>../img/PhongPTPM1/HoangSyToan.jpg</v>
+        <v>../img/PhongDSTK/DoanTrungHieu.JPG</v>
       </c>
       <c r="E36" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G36" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="B37" t="str">
-        <v>Bùi Thế Khang</v>
+        <v>Trần Tuyết Thanh</v>
       </c>
       <c r="C37" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D37" t="str">
-        <v>../img/PhongPTPM2/BuiTheKhang.jpg</v>
+        <v>../img/PhongTongHop/TranTuyetThanh.jpg</v>
       </c>
       <c r="E37" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G37" t="str">
-        <v>x</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="B38" t="str">
-        <v>Ngô Tuấn Linh</v>
+        <v>Nguyễn Văn Trường</v>
       </c>
       <c r="C38" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D38" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NgoTuanLinh.jpg</v>
+        <v>../img/PhongDSTK/NguyenVanTruong.jpg</v>
       </c>
       <c r="E38" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G38" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B39" t="str">
-        <v>Ngô Đình Chấn</v>
+        <v>Vũ Xuân Nam</v>
       </c>
       <c r="C39" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D39" t="str">
-        <v>../img/PhongKinhdoanh/NgoDinhChan.jpg</v>
+        <v>../img/PhongKTMB/VuXuanNam.jpg</v>
       </c>
       <c r="E39" t="str">
-        <v>Tổ trưởng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="B40" t="str">
-        <v>Vũ Đình Hiếu</v>
+        <v>Nguyễn Xuân Thuận</v>
       </c>
       <c r="C40" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D40" t="str">
-        <v>../img/PhongPTPM2/VuDinhHieu.jpg</v>
+        <v>../img/PhongKTMN/NguyenXuanThuan.jpg</v>
       </c>
       <c r="E40" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B41" t="str">
-        <v>Lê Anh Minh</v>
+        <v>Nguyễn Thị Thu Hiền</v>
       </c>
       <c r="C41" t="str">
-        <v>BU MSO</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D41" t="str">
-        <v>../img/BUMSO/LeAnhMinh.jpg</v>
+        <v>../img/PhongTinhCuoc/NguyenThiThuHien-TC.jpg</v>
       </c>
       <c r="E41" t="str">
         <v>Chuyên viên</v>
@@ -1025,76 +980,67 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="B42" t="str">
-        <v>Nguyễn Thùy Dương</v>
+        <v>Vũ Văn Vường</v>
       </c>
       <c r="C42" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Lãnh đạo Trung tâm</v>
       </c>
       <c r="D42" t="str">
-        <v>../img/PhongPTPM1/NguyenThuyDuong.jpg</v>
+        <v>../img/LDTT/NguyenMinhTuan.jpg</v>
       </c>
       <c r="E42" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G42" t="str">
-        <v>x</v>
+        <v>Phó Giám đốc trung tâm</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B43" t="str">
-        <v>Nguyễn Trung Kiên</v>
+        <v>Nguyễn Hoàng Yến</v>
       </c>
       <c r="C43" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D43" t="str">
-        <v>../img/PhongBigData/NguyenTrungKien.jpg</v>
+        <v>../img/PhongKTMN/NguyenHoangYen.jpg</v>
       </c>
       <c r="E43" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G43" t="str">
-        <v>x</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B44" t="str">
-        <v>Lê Thị Lan Anh</v>
+        <v>Đỗ Thị Thanh Tâm</v>
       </c>
       <c r="C44" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D44" t="str">
-        <v>../img/BUCRM/LeThiLanAnh.jpg</v>
+        <v>../img/PhongKyThuat/DoThiThanhTam-KT.jpg</v>
       </c>
       <c r="E44" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F44" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B45" t="str">
-        <v>Mai Phương Liên</v>
+        <v>Nguyễn Thị Bích</v>
       </c>
       <c r="C45" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D45" t="str">
-        <v>../img/BUCRM/MaiPhuongLien.jpg</v>
+        <v>../img/PhongTongHop/NguyenThiBich.jpg</v>
       </c>
       <c r="E45" t="str">
         <v>Chuyên viên</v>
@@ -1102,33 +1048,33 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B46" t="str">
-        <v>Nghiêm Văn Nghĩa</v>
+        <v>Nguyễn Bùi Hào Hiệp</v>
       </c>
       <c r="C46" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D46" t="str">
-        <v>../img/PhongBigData/NghiemVanNghia.jpg</v>
+        <v>../img/PhongKTMN/NguyenBuiHaoHiep.jpg</v>
       </c>
       <c r="E46" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B47" t="str">
-        <v>Nguyễn Thị Thu Trang</v>
+        <v>Lê Văn An</v>
       </c>
       <c r="C47" t="str">
-        <v>Phòng Kế toán</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D47" t="str">
-        <v>../img/PhongKetoan/NguyenThiThuTrang.jpg</v>
+        <v>../img/PhongPTDL/LeVanAn.jpg</v>
       </c>
       <c r="E47" t="str">
         <v>Chuyên viên</v>
@@ -1136,36 +1082,33 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="B48" t="str">
-        <v xml:space="preserve">Lê Thế Sự </v>
+        <v>Vũ Quốc Doanh</v>
       </c>
       <c r="C48" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D48" t="str">
-        <v>../img/PhongPTPM2/LeTheSu.jpg</v>
+        <v>../img/PhongTinhCuoc/VuQuocDoanh.jpg</v>
       </c>
       <c r="E48" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F48" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="B49" t="str">
-        <v>Đặng Hoàng Hà</v>
+        <v>Nguyễn Anh Dũng</v>
       </c>
       <c r="C49" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D49" t="str">
-        <v>../img/PhongPTPM2/DangHoangHa.jpg</v>
+        <v>../img/PhongKTMB/NguyenAnhDung-KTMB.jpg</v>
       </c>
       <c r="E49" t="str">
         <v>Chuyên viên</v>
@@ -1173,16 +1116,16 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="B50" t="str">
-        <v>Lại Mạnh Huấn</v>
+        <v>Vũ Ngọc Thành</v>
       </c>
       <c r="C50" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D50" t="str">
-        <v>../img/PhongGiaiphapTichhop/LaiManhHuan.jpg</v>
+        <v>../img/PhongDSTK/VuNgocThanh.jpg</v>
       </c>
       <c r="E50" t="str">
         <v>Chuyên viên</v>
@@ -1190,36 +1133,33 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B51" t="str">
-        <v>Hoàng Thị Loan</v>
+        <v>Phan Hoàng Tiến</v>
       </c>
       <c r="C51" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D51" t="str">
-        <v>../img/PhongKinhdoanh/HoangThiLoan.jpg</v>
+        <v>../img/PhongTinhCuoc/PhanHoangTien.jpg</v>
       </c>
       <c r="E51" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G51" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B52" t="str">
-        <v>Lại Thị Vân</v>
+        <v>Nguyễn Đức Dũng</v>
       </c>
       <c r="C52" t="str">
-        <v>BU SMEs</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D52" t="str">
-        <v>../img/BUSMEs/LaiThiVan.jpg</v>
+        <v>../img/PhongPTDL/NguyenDucDung.jpg</v>
       </c>
       <c r="E52" t="str">
         <v>Chuyên viên</v>
@@ -1227,113 +1167,101 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="B53" t="str">
-        <v>Nguyễn Đức Thắng</v>
+        <v>Lê Anh Minh</v>
       </c>
       <c r="C53" t="str">
-        <v>BU MSO</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D53" t="str">
-        <v>../img/BUMSO/NguyenDucThang.jpg</v>
+        <v>../img/PhongKTMB/LeAnhMinh.jpg</v>
       </c>
       <c r="E53" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F53" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="B54" t="str">
-        <v>Nguyễn Hải Linh</v>
+        <v>Lê Văn Thông</v>
       </c>
       <c r="C54" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D54" t="str">
-        <v>../img/PhongPTPM1/NguyenHaiLinh.jpg</v>
+        <v>../img/PhongKyThuat/LeVanThong.jpg</v>
       </c>
       <c r="E54" t="str">
-        <v>Trưởng phòng</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="B55" t="str">
-        <v>Hà Thị Phương Chi</v>
+        <v>Văn Đức Nghĩa</v>
       </c>
       <c r="C55" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D55" t="str">
-        <v>../img/PhongKinhdoanh/HaThiPhuongChi.jpg</v>
+        <v>../img/PhongKyThuat/VanDucNghia.jpg</v>
       </c>
       <c r="E55" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F55" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="B56" t="str">
-        <v>Tô Mạnh Cường</v>
+        <v>Vũ Văn Hiến</v>
       </c>
       <c r="C56" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D56" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/ToManhCuong.jpg</v>
+        <v>../img/PhongKyThuat/VuVanHien.jpg</v>
       </c>
       <c r="E56" t="str">
-        <v>Thành viên Hội đồng thành viên, Tổng giám đốc</v>
-      </c>
-      <c r="G56" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="B57" t="str">
-        <v>Nguyễn Quang Tiến</v>
+        <v>Phạm Thị Lan</v>
       </c>
       <c r="C57" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D57" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NguyenQuangTien.jpg</v>
+        <v>../img/PhongPTDL/PhamThiLan.jpg</v>
       </c>
       <c r="E57" t="str">
-        <v>Phó Bí thư thường trực Đảng ủy Tổng công ty</v>
-      </c>
-      <c r="G57" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B58" t="str">
-        <v>Bùi Thị Thu Hiền</v>
+        <v>Chu Đức Hiếu</v>
       </c>
       <c r="C58" t="str">
-        <v>Phòng Kế toán</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D58" t="str">
-        <v>../img/PhongKetoan/BuiThiThuHien.jpg</v>
+        <v>../img/PhongPTDL/ChuDucHieu.jpg</v>
       </c>
       <c r="E58" t="str">
         <v>Chuyên viên</v>
@@ -1341,113 +1269,101 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="B59" t="str">
-        <v>Ngô Thị Thắm</v>
+        <v>Nguyễn Minh Thu</v>
       </c>
       <c r="C59" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D59" t="str">
-        <v>../img/PhongPTPM1/NgoThiTham.jpg</v>
+        <v>../img/PhongDSTK/NguyenMinhThu.jpg</v>
       </c>
       <c r="E59" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ phó</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>311</v>
+        <v>99</v>
       </c>
       <c r="B60" t="str">
-        <v>Đặng Đình Đồng</v>
+        <v>Vũ Thế Anh</v>
       </c>
       <c r="C60" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D60" t="str">
-        <v>../img/PhongTonghop/DangDinhDong.jpg</v>
+        <v>../img/PhongDSTK/VuTheAnh.jpg</v>
       </c>
       <c r="E60" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F60" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>343</v>
+        <v>148</v>
       </c>
       <c r="B61" t="str">
-        <v>Phan Tuấn Anh</v>
+        <v>Ngô Minh Khuê</v>
       </c>
       <c r="C61" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D61" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/PhanTuanAnh.jpg</v>
+        <v>../img/PhongPTDL/NgoMinhKhue.jpg</v>
       </c>
       <c r="E61" t="str">
-        <v>Kế toán trưởng - Trưởng ban Tài chính - Kế toán</v>
-      </c>
-      <c r="G61" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B62" t="str">
-        <v>Dương Thùy Trang</v>
+        <v>Vũ Hạnh Hợp</v>
       </c>
       <c r="C62" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D62" t="str">
-        <v>../img/PhongKinhdoanh/DuongThuyTrang.jpg</v>
+        <v>../img/PhongPTDL/VuHanhHop.jpg</v>
       </c>
       <c r="E62" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="G62" t="str">
-        <v>x</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="B63" t="str">
-        <v>Ngô Anh Long</v>
+        <v>Lê Viết Linh</v>
       </c>
       <c r="C63" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D63" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NgoAnhLong.jpg</v>
+        <v>../img/PhongKTMB/LeVietLinh.jpg</v>
       </c>
       <c r="E63" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G63" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B64" t="str">
-        <v>Lê Tùng Lâm</v>
+        <v>Phạm Thị Trang</v>
       </c>
       <c r="C64" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D64" t="str">
-        <v>../img/PhongGiaiphapTichhop/LeTungLam.jpg</v>
+        <v>../img/PhongDSTK/PhamThiTrang.jpg</v>
       </c>
       <c r="E64" t="str">
         <v>Chuyên viên</v>
@@ -1455,16 +1371,16 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="B65" t="str">
-        <v>Trịnh Thị Dung</v>
+        <v>Nguyễn Đức Anh</v>
       </c>
       <c r="C65" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D65" t="str">
-        <v>../img/PhongTonghop/TrinhThiDung.jpg</v>
+        <v>../img/PhongTinhCuoc/NguyenDucAnh-TC.jpg</v>
       </c>
       <c r="E65" t="str">
         <v>Chuyên viên</v>
@@ -1477,16 +1393,16 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B67" t="str">
-        <v>Bùi Xuân Tuy</v>
+        <v>Đào Mạnh Tùng</v>
       </c>
       <c r="C67" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D67" t="str">
-        <v>../img/PhongGiaiphapTichhop/BuiXuanTuy.jpg</v>
+        <v>../img/PhongDSTK/DaoManhTung.jpg</v>
       </c>
       <c r="E67" t="str">
         <v>Chuyên viên</v>
@@ -1494,70 +1410,67 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B68" t="str">
-        <v>Lê Thị Bảo Yến</v>
+        <v>Lê Xuân Hiếu</v>
       </c>
       <c r="C68" t="str">
-        <v>Phòng Kế toán</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D68" t="str">
-        <v>../img/PhongKetoan/LeThiBaoYen.jpg</v>
+        <v>../img/PhongKTMN/LeXuanHieu.jpg</v>
       </c>
       <c r="E68" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="B69" t="str">
-        <v>Đỗ Thị Tú Oanh</v>
+        <v>Nguyễn Thị Mai</v>
       </c>
       <c r="C69" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D69" t="str">
-        <v>../img/PhongGiaiphapTichhop/DoThiTuOanh.jpg</v>
+        <v>../img/PhongKeToan/NguyenThiMai.JPG</v>
       </c>
       <c r="E69" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="B70" t="str">
-        <v>Nguyễn Đức Quỳnh</v>
+        <v>Nguyễn Anh Dũng</v>
       </c>
       <c r="C70" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D70" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NguyenDucQuynh.jpg</v>
+        <v>../img/PhongPTDL/NguyenAnhDung-PTDL.jpeg</v>
       </c>
       <c r="E70" t="str">
-        <v>Phó Ban Giải pháp và dịch vụ số</v>
-      </c>
-      <c r="G70" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B71" t="str">
-        <v>Dương Quốc Khánh</v>
+        <v>Trần Nhân Ái</v>
       </c>
       <c r="C71" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng KTMN</v>
       </c>
       <c r="D71" t="str">
-        <v>../img/PhongPTPM1/DuongQuocKhanh.jpg</v>
+        <v>../img/PhongKTMN/TranNhanAi.jpg</v>
       </c>
       <c r="E71" t="str">
         <v>Chuyên viên</v>
@@ -1565,93 +1478,84 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="B72" t="str">
-        <v>Nguyễn Đình Chiến</v>
+        <v>Đào Minh Hiếu</v>
       </c>
       <c r="C72" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D72" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NguyenDinhChien.jpg</v>
+        <v>../img/PhongPTDL/DaoMinhHieu.jpg</v>
       </c>
       <c r="E72" t="str">
-        <v>Thành viên Hội đồng thành viên</v>
-      </c>
-      <c r="G72" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="B73" t="str">
-        <v>Nguyễn Văn Tiến</v>
+        <v>Hồ Huyền My</v>
       </c>
       <c r="C73" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D73" t="str">
-        <v>../img/PhongKinhdoanh/NguyenVanTien.jpg</v>
+        <v>../img/PhongKyThuat/HoHuyenMy.jpg</v>
       </c>
       <c r="E73" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F73" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="B74" t="str">
-        <v>Lê Hồng Được</v>
+        <v>Vĩnh Tuấn Bảo</v>
       </c>
       <c r="C74" t="str">
-        <v>Phòng PTPM3</v>
+        <v>Tổng công ty Viễn thông MobiFone</v>
       </c>
       <c r="D74" t="str">
-        <v>../img/PhongPTPM3/LeHongDuoc.jpg</v>
+        <v>../img/KhachMoi/VinhTuanBao.jpg</v>
       </c>
       <c r="E74" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó Tổng Giám đốc</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="B75" t="str">
-        <v>Trịnh Thị Huyền Trang</v>
+        <v>Vũ Thị Thanh Hà</v>
       </c>
       <c r="C75" t="str">
-        <v>Phòng Big Data</v>
+        <v>Tổng công ty Viễn thông MobiFone</v>
       </c>
       <c r="D75" t="str">
-        <v>../img/PhongBigData/TrinhThiHuyenTrang.jpg</v>
+        <v>../img/KhachMoi/VuThiThanhHa.jpg</v>
       </c>
       <c r="E75" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F75" t="str">
-        <v>x</v>
+        <v>Chuyên viên ban Công nghệ</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B76" t="str">
-        <v>Kiều Ngọc Công</v>
+        <v>Lê Chinh</v>
       </c>
       <c r="C76" t="str">
-        <v>BU IOT</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D76" t="str">
-        <v>../img/BUIOT/KieuNgocCong.jpg</v>
+        <v>../img/PhongPTDL/LeChinh.jpg</v>
       </c>
       <c r="E76" t="str">
         <v>Chuyên viên</v>
@@ -1659,110 +1563,95 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="B77" t="str">
-        <v>Trần Thị Thanh Bình</v>
+        <v>Chu Thị Hương</v>
       </c>
       <c r="C77" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D77" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/TranThiThanhBinh.jpg</v>
+        <v>../img/PhongKyThuat/ChuThiHuong.jpg</v>
       </c>
       <c r="E77" t="str">
         <v>Chuyên viên</v>
       </c>
-      <c r="G77" t="str">
-        <v>x</v>
-      </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>327</v>
-      </c>
       <c r="B78" t="str">
-        <v>Nguyễn Đình Tuấn</v>
+        <v>Nguyễn Văn Trung</v>
       </c>
       <c r="C78" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v xml:space="preserve">Công ty Cổ phần Công nghệ Công nghiệp Bưu chính Viễn thông </v>
       </c>
       <c r="D78" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/NguyenDinhTuan.jpg</v>
-      </c>
-      <c r="E78" t="str">
-        <v>Thành viên Hội đồng thành viên</v>
-      </c>
-      <c r="G78" t="str">
-        <v>x</v>
+        <v>../img/KhachMoi/NguyenVanTrung.jpg</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B79" t="str">
-        <v>Hoàng Văn Đạt</v>
+        <v>Hoàng Văn An</v>
       </c>
       <c r="C79" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D79" t="str">
-        <v>../img/PhongBigData/HoangVanDat.jpg</v>
+        <v>../img/PhongKTMB/HoangVanAn.jpg</v>
       </c>
       <c r="E79" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B80" t="str">
-        <v>Đinh Tiến Hưng</v>
+        <v>Phan Thị Bích Hà</v>
       </c>
       <c r="C80" t="str">
-        <v>BU Du lịch thông minh</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D80" t="str">
-        <v>../img/BUDulichthongminh/DinhTienHung.jpg</v>
+        <v>../img/PhongTongHop/PhanThiBichHa.jpg</v>
       </c>
       <c r="E80" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G80" t="str">
-        <v>x</v>
+        <v>Nhân viên</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B81" t="str">
-        <v>Nguyễn Hữu Đạt</v>
+        <v>Chu Quốc Trung</v>
       </c>
       <c r="C81" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D81" t="str">
-        <v>../img/BUCRM/NguyenHuuDat.jpg</v>
+        <v>../img/PhongTongHop/ChuQuocTrung.jpg</v>
       </c>
       <c r="E81" t="str">
-        <v>Phó phòng</v>
+        <v>Nhân viên</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B82" t="str">
-        <v>Đào Thị Huyền</v>
+        <v>Phạm Thanh Bình</v>
       </c>
       <c r="C82" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D82" t="str">
-        <v>../img/PhongPTPM1/DaoThiHuyen.jpg</v>
+        <v>../img/PhongKTMB/PhamThanhBinh.jpg</v>
       </c>
       <c r="E82" t="str">
         <v>Chuyên viên</v>
@@ -1770,16 +1659,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B83" t="str">
-        <v>Bùi Văn Phương</v>
+        <v>Nguyễn Văn Dũng</v>
       </c>
       <c r="C83" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D83" t="str">
-        <v>../img/PhongGiaiphapTichhop/BuiVanPhuong.jpg</v>
+        <v>../img/PhongPTDL/NguyenVanDung.jpg</v>
       </c>
       <c r="E83" t="str">
         <v>Chuyên viên</v>
@@ -1787,50 +1676,50 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="B84" t="str">
-        <v>Đào Thị Anh Thư</v>
+        <v>Nguyễn Trung Hiếu</v>
       </c>
       <c r="C84" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D84" t="str">
-        <v>../img/PhongTonghop/DaoThiAnhThu.jpg</v>
+        <v>../img/PhongDSTK/NguyenTrungHieu.jpg</v>
       </c>
       <c r="E84" t="str">
-        <v>Phó phòng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B85" t="str">
-        <v>Nguyễn Tiến Khải</v>
+        <v>Bùi Trần Phương Thảo</v>
       </c>
       <c r="C85" t="str">
-        <v>BU IOT</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D85" t="str">
-        <v>../img/BUIOT/NguyenTienKhai.jpg</v>
+        <v>../img/PhongKyThuat/BuiTranPhuongThao.png</v>
       </c>
       <c r="E85" t="str">
-        <v>Trưởng BU</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="B86" t="str">
-        <v>Nguyễn Trường Giang</v>
+        <v>Đỗ Tấn Phong</v>
       </c>
       <c r="C86" t="str">
-        <v>BU Du lịch thông minh</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D86" t="str">
-        <v>../img/BUDulichthongminh/NguyenTruongGiang.jpg</v>
+        <v>../img/PhongTinhCuoc/DoTanPhong.JPG</v>
       </c>
       <c r="E86" t="str">
         <v>Chuyên viên</v>
@@ -1838,36 +1727,33 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B87" t="str">
-        <v>Phạm Quang Hưng</v>
+        <v>Lã Thành Trung</v>
       </c>
       <c r="C87" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Tổng công ty Viễn thông MobiFone</v>
       </c>
       <c r="D87" t="str">
-        <v>../img/PhongPTPM1/PhamQuangHung.jpg</v>
+        <v>../img/KhachMoi/LaThanhTrung.jpg</v>
       </c>
       <c r="E87" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F87" t="str">
-        <v>x</v>
+        <v>Trưởng ban Công nghệ</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B88" t="str">
-        <v>Phạm Văn Chiến</v>
+        <v>Phan Trường Vũ</v>
       </c>
       <c r="C88" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D88" t="str">
-        <v>../img/PhongGiaiphapTichhop/PhamVanChien.jpg</v>
+        <v>../img/PhongPTDL/PhanTruongVu.jpg</v>
       </c>
       <c r="E88" t="str">
         <v>Chuyên viên</v>
@@ -1875,73 +1761,67 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B89" t="str">
-        <v>Đào Thái Sơn</v>
+        <v>Nguyễn Quang Tiến</v>
       </c>
       <c r="C89" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Tổng công ty Viễn thông MobiFone</v>
       </c>
       <c r="D89" t="str">
-        <v>../img/PhongKinhdoanh/DaoThaiSon.jpg</v>
+        <v>../img/KhachMoi/NguyenQuangTien.jpg</v>
       </c>
       <c r="E89" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó Bí thư Thường trực Đảng ủy</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B90" t="str">
-        <v>Nguyễn Ngọc Kiên</v>
+        <v>Nguyễn Huy Hùng</v>
       </c>
       <c r="C90" t="str">
-        <v>BU CRM</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D90" t="str">
-        <v>../img/BUCRM/NguyenNgocKien.jpg</v>
+        <v>../img/PhongDSTK/NguyenHuyHung.jpg</v>
       </c>
       <c r="E90" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G90" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="B91" t="str">
-        <v>Hoàng Thị Thắng</v>
+        <v>Hoàng Hữu Hưởng</v>
       </c>
       <c r="C91" t="str">
-        <v>Phòng Tổng hợp</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D91" t="str">
-        <v>../img/PhongTonghop/HoangThiThang.jpg</v>
+        <v>../img/PhongKyThuat/HoangHuuHuong.jpg</v>
       </c>
       <c r="E91" t="str">
-        <v>Thử việc</v>
-      </c>
-      <c r="G91" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="B92" t="str">
-        <v>Nguyễn Quang Minh</v>
+        <v>Bùi Công Hán</v>
       </c>
       <c r="C92" t="str">
-        <v>BU Du lịch thông minh</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D92" t="str">
-        <v>../img/BUDulichthongminh/NguyenQuangMinh.jpg</v>
+        <v>../img/PhongKTMB/BuiCongHan.jpg</v>
       </c>
       <c r="E92" t="str">
         <v>Chuyên viên</v>
@@ -1949,153 +1829,129 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="B93" t="str">
-        <v>Trịnh Thị Thu Trang</v>
+        <v>Đào Thị Thu Hồng</v>
       </c>
       <c r="C93" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D93" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/TrinhThiThuTrang.jpg</v>
+        <v>../img/PhongDSTK/DaoThiThuHong.jpg</v>
       </c>
       <c r="E93" t="str">
-        <v>Chuyên viên</v>
-      </c>
-      <c r="G93" t="str">
-        <v>x</v>
+        <v>Trưởng phòng</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B94" t="str">
-        <v>Đặng Thanh Thủy</v>
+        <v>Cao La Duy Hưng</v>
       </c>
       <c r="C94" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D94" t="str">
-        <v>../img/PhongGiaiphapTichhop/DangThanhThuy.jpg</v>
+        <v>../img/PhongDSTK/CaoLaDuyHung.jpg</v>
       </c>
       <c r="E94" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F94" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="B95" t="str">
-        <v>Nguyễn Việt Anh</v>
+        <v>Phạm Ngọc Quý</v>
       </c>
       <c r="C95" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D95" t="str">
-        <v>../img/PhongPTPM1/NguyenVietAnh.jpg</v>
+        <v>../img/PhongKeToan/PhamNgocQuy.jpg</v>
       </c>
       <c r="E95" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F95" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="B96" t="str">
-        <v>Nguyễn Khánh Hưng</v>
+        <v>La Thị Hồng Nhung</v>
       </c>
       <c r="C96" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D96" t="str">
-        <v>../img/PhongPTPM2/NguyenKhanhHung.jpg</v>
+        <v>../img/PhongKyThuat/LaThiHongNhung.jpg</v>
       </c>
       <c r="E96" t="str">
-        <v>SVTT trả lương</v>
-      </c>
-      <c r="G96" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="B97" t="str">
-        <v>Trần Ngọc Anh</v>
+        <v>Vũ Thị Hồng Vân</v>
       </c>
       <c r="C97" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D97" t="str">
-        <v>../img/PhongBigData/TranNgocAnh.jpg</v>
+        <v>../img/PhongKeToan/VuThiHongVan.jpg</v>
       </c>
       <c r="E97" t="str">
-        <v>CTV</v>
-      </c>
-      <c r="F97" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B98" t="str">
-        <v>Nguyễn Thị Diễm Hà</v>
+        <v>Phạm Thế Bảo</v>
       </c>
       <c r="C98" t="str">
-        <v>Phòng Kế toán</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D98" t="str">
-        <v>../img/PhongKetoan/NguyenThiDiemHa.jpg</v>
+        <v>../img/PhongKyThuat/PhamTheBao.jpg</v>
       </c>
       <c r="E98" t="str">
-        <v>Kế toán trưởng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>48</v>
-      </c>
-      <c r="B99" t="str">
-        <v>Nguyễn Trung Kiên</v>
+        <v>243</v>
       </c>
       <c r="C99" t="str">
-        <v>BU IOT</v>
+        <v>Công ty TNHH FPT IS</v>
       </c>
       <c r="D99" t="str">
-        <v>../img/BUIOT/NguyenTrungKien.jpg</v>
-      </c>
-      <c r="E99" t="str">
-        <v>Chuyên viên</v>
-      </c>
-      <c r="G99" t="str">
-        <v>x</v>
+        <v>../img/KhachMoi/KhongAnh.jpg</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="B100" t="str">
-        <v>Vũ Ngọc Thành</v>
+        <v>Phùng Anh Tiến</v>
       </c>
       <c r="C100" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D100" t="str">
-        <v>../img/BUCRM/VuNgocThanh.jpg</v>
+        <v>../img/PhongTinhCuoc/PhungAnhTien.jpg</v>
       </c>
       <c r="E100" t="str">
         <v>Chuyên viên</v>
@@ -2103,184 +1959,169 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B101" t="str">
-        <v>Nguyễn Thị Hồng Nhung</v>
+        <v>Lê Hoàng Hiệp</v>
       </c>
       <c r="C101" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D101" t="str">
-        <v>../img/PhongPTPM2/NguyenThiHongNhung.jpg</v>
+        <v>../img/PhongKTMB/LeHoangHiep.jpg</v>
       </c>
       <c r="E101" t="str">
-        <v>Chuyên viên</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="B102" t="str">
-        <v xml:space="preserve">Lê Hữu Anh Tú </v>
+        <v>Phạm Thị Ánh Tuyết</v>
       </c>
       <c r="C102" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D102" t="str">
-        <v>../img/PhongPTPM2/LeHuuAnhTu.jpg</v>
+        <v>../img/PhongTinhCuoc/PhamThiAnhTuyet.jpg</v>
       </c>
       <c r="E102" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F102" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="B103" t="str">
-        <v>Đoàn Đình Dân</v>
+        <v>Nguyễn Thu Huyền (TCHC)</v>
       </c>
       <c r="C103" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D103" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/DoanDinhDan.jpg</v>
+        <v>../img/PhongTongHop/NguyenThuHuyen (TCHC).jpg</v>
       </c>
       <c r="E103" t="str">
-        <v>Thành viên Hội đồng thành viên</v>
-      </c>
-      <c r="G103" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="B104" t="str">
-        <v>Vương Sỹ Tùng</v>
+        <v>Đào Việt Hùng</v>
       </c>
       <c r="C104" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D104" t="str">
-        <v>../img/PhongPTPM1/VuongSyTung.jpg</v>
+        <v>../img/PhongKyThuat/DaoVietHung.jpg</v>
       </c>
       <c r="E104" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B105" t="str">
-        <v>Nguyễn Trung Kiên</v>
+        <v>Trương Quốc Hiệu</v>
       </c>
       <c r="C105" t="str">
-        <v>BU SMEs</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D105" t="str">
-        <v>../img/BUSMEs/NguyenTrungKien.jpg</v>
+        <v>../img/PhongTinhCuoc/TruongQuocHieu.jpg</v>
       </c>
       <c r="E105" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G105" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B106" t="str">
-        <v>Nguyễn Lâm Vũ</v>
+        <v>Nguyễn Đắc Dũng</v>
       </c>
       <c r="C106" t="str">
-        <v>Phòng Giải pháp Tích hợp</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D106" t="str">
-        <v>../img/PhongGiaiphapTichhop/NguyenLamVu.jpg</v>
+        <v>../img/PhongTinhCuoc/NguyenDacDung.jpg</v>
       </c>
       <c r="E106" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F106" t="str">
-        <v>x</v>
+        <v>Trưởng phòng</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B107" t="str">
-        <v>Nguyễn Thị Thanh Bình</v>
+        <v>Trần Đức Hoàng Hùng</v>
       </c>
       <c r="C107" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D107" t="str">
-        <v>../img/PhongKinhdoanh/NguyenThiThanhBinh.jpg</v>
+        <v>../img/PhongTinhCuoc/TranDucHoangHung.jpg</v>
       </c>
       <c r="E107" t="str">
-        <v>Phó phòng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B108" t="str">
-        <v>Nguyễn Phương Thảo</v>
+        <v>Nguyễn Thị Huyền Thương</v>
       </c>
       <c r="C108" t="str">
-        <v>BU MSO</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D108" t="str">
-        <v>../img/BUMSO/NguyenPhuongThao.jpg</v>
+        <v>../img/PhongDSTK/NguyenThiHuyenThuong.jpg</v>
       </c>
       <c r="E108" t="str">
-        <v>Thử việc</v>
-      </c>
-      <c r="G108" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B109" t="str">
-        <v>Trần Minh Đức</v>
+        <v>Phạm Thị Thu Trang</v>
       </c>
       <c r="C109" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng ĐSTK</v>
       </c>
       <c r="D109" t="str">
-        <v>../img/PhongBigData/TranMinhDuc.jpg</v>
+        <v>../img/PhongDSTK/PhamThiThuTrang.jpg</v>
       </c>
       <c r="E109" t="str">
-        <v>Tổ trưởng</v>
+        <v>Lao động dịch vụ</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B110" t="str">
-        <v>Trương Văn Minh</v>
+        <v>Trần Minh Hiếu</v>
       </c>
       <c r="C110" t="str">
-        <v>BU MSO</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D110" t="str">
-        <v>../img/BUMSO/TruongVanMinh.jpg</v>
+        <v>../img/PhongTinhCuoc/TranMinhHieu.jpeg</v>
       </c>
       <c r="E110" t="str">
         <v>Chuyên viên</v>
@@ -2288,130 +2129,118 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B111" t="str">
-        <v>Nguyễn Thị Hương Quỳnh</v>
+        <v>Nguyễn Thu Huyền</v>
       </c>
       <c r="C111" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D111" t="str">
-        <v>../img/BUCRM/NguyenThiHuongQuynh.jpg</v>
+        <v>../img/PhongTongHop/NguyenThuHuyen.jpg</v>
       </c>
       <c r="E111" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G111" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="B112" t="str">
-        <v>Bùi Sơn Nam</v>
+        <v>Vũ Thanh Bình</v>
       </c>
       <c r="C112" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D112" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/BuiSonNam.jpg</v>
+        <v>../img/PhongTinhCuoc/VuThanhBinh.jpg</v>
       </c>
       <c r="E112" t="str">
-        <v>Phó Tổng giám đốc</v>
-      </c>
-      <c r="G112" t="str">
-        <v>x</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="B113" t="str">
-        <v>Vương Tất Trường</v>
+        <v>Bùi Công Hải</v>
       </c>
       <c r="C113" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D113" t="str">
-        <v>../img/PhongPTPM2/VuongTatTruong.jpg</v>
+        <v>../img/PhongTongHop/BuiCongHai.JPG</v>
       </c>
       <c r="E113" t="str">
-        <v>Chuyên viên</v>
+        <v>Trưởng phòng</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B114" t="str">
-        <v>Nguyễn Thế Nam</v>
+        <v>Lê Duy Thái</v>
       </c>
       <c r="C114" t="str">
-        <v>BU CRM</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D114" t="str">
-        <v>../img/BUCRM/NguyenTheNam.jpg</v>
+        <v>../img/PhongKyThuat/LeDuyThai.jpg</v>
       </c>
       <c r="E114" t="str">
-        <v>Chuyên viên</v>
+        <v xml:space="preserve">Chuyên viên </v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>339</v>
+        <v>50</v>
       </c>
       <c r="B115" t="str">
-        <v>Hoàng Sinh Trường</v>
+        <v>Nguyễn Đức Toàn</v>
       </c>
       <c r="C115" t="str">
-        <v>TCT Viễn thông MobiFone</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D115" t="str">
-        <v>../img/TongcongtyVienthongMobiFone/HoangSinhTruong.jpg</v>
+        <v>../img/PhongKyThuat/NguyenDucToan.jpg</v>
       </c>
       <c r="E115" t="str">
-        <v>Trưởng Ban Dịch vụ viễn thông</v>
-      </c>
-      <c r="G115" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="B116" t="str">
-        <v>Ninh Công Hùng</v>
+        <v>Nguyễn Văn Cường</v>
       </c>
       <c r="C116" t="str">
-        <v>Phòng PTPM1</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D116" t="str">
-        <v>../img/PhongPTPM1/NinhCongHung.jpg</v>
+        <v>../img/PhongKyThuat/NguyenVanCuong.jpg</v>
       </c>
       <c r="E116" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="G116" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B117" t="str">
-        <v>Nguyễn Thị Minh</v>
+        <v>Nguyễn Thành Đạt</v>
       </c>
       <c r="C117" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng PTDL</v>
       </c>
       <c r="D117" t="str">
-        <v>../img/PhongBigData/NguyenThiMinh.jpg</v>
+        <v>../img/PhongPTDL/NguyenThanhDat.jpg</v>
       </c>
       <c r="E117" t="str">
         <v>Chuyên viên</v>
@@ -2419,16 +2248,16 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="B118" t="str">
-        <v>Trần Thị Phương</v>
+        <v>Trần Thị Thanh Huyền</v>
       </c>
       <c r="C118" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Kế toán</v>
       </c>
       <c r="D118" t="str">
-        <v>../img/PhongKinhdoanh/TranThiPhuong.jpg</v>
+        <v>../img/PhongKeToan/TranThiThanhHuyen.jpg</v>
       </c>
       <c r="E118" t="str">
         <v>Chuyên viên</v>
@@ -2436,110 +2265,101 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B119" t="str">
-        <v>Nguyễn Phương Thảo</v>
+        <v>Tạ Quang Huy</v>
       </c>
       <c r="C119" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D119" t="str">
-        <v>../img/PhongKinhdoanh/NguyenPhuongThao.jpg</v>
+        <v>../img/PhongKTMB/TaQuangHuy.jpg</v>
       </c>
       <c r="E119" t="str">
-        <v>CLC</v>
-      </c>
-      <c r="F119" t="str">
-        <v>x</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="B120" t="str">
-        <v>Nguyễn Thị Hằng</v>
+        <v>Lê Mạnh Cường</v>
       </c>
       <c r="C120" t="str">
-        <v>BU Du lịch thông minh</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D120" t="str">
-        <v>../img/BUDulichthongminh/NguyenThiHang.jpg</v>
+        <v>../img/PhongKTMB/LeManhCuong.jpg</v>
       </c>
       <c r="E120" t="str">
         <v>Chuyên viên</v>
-      </c>
-      <c r="G120" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B121" t="str">
-        <v>Nguyễn Quang Minh</v>
+        <v>Lưu Việt Tùng</v>
       </c>
       <c r="C121" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D121" t="str">
-        <v>../img/PhongBigData/NguyenQuangMinh.jpg</v>
+        <v>../img/PhongTinhCuoc/LuuVietTung.jpg</v>
       </c>
       <c r="E121" t="str">
-        <v>Chuyên viên</v>
+        <v>Tổ trưởng</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B122" t="str">
-        <v>Hà Danh Tới</v>
+        <v>Phạm Thanh Tùng</v>
       </c>
       <c r="C122" t="str">
-        <v>BU MSO</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D122" t="str">
-        <v>../img/BUMSO/HaDanhToi.jpg</v>
+        <v>../img/PhongKyThuat/PhamThanhTung.jpg</v>
       </c>
       <c r="E122" t="str">
-        <v>Chuyên viên</v>
-      </c>
-      <c r="G122" t="str">
-        <v>x</v>
+        <v>Tổ phó</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="B123" t="str">
-        <v>Hoàng Quốc Khánh</v>
+        <v>Nguyễn Văn Chung</v>
       </c>
       <c r="C123" t="str">
-        <v>BU MSO</v>
+        <v>Phòng KTMB</v>
       </c>
       <c r="D123" t="str">
-        <v>../img/BUMSO/HoangQuocKhanh.jpg</v>
+        <v>../img/PhongKTMB/NguyenVanChung.jpg</v>
       </c>
       <c r="E123" t="str">
-        <v>Chuyên viên</v>
+        <v xml:space="preserve">Chuyên viên </v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="B124" t="str">
-        <v>Nguyễn Thị Lan</v>
+        <v>Trần Tiến Anh</v>
       </c>
       <c r="C124" t="str">
-        <v>Phòng PTPM2</v>
+        <v>Phòng Tính cước</v>
       </c>
       <c r="D124" t="str">
-        <v>../img/PhongPTPM2/NguyenThiLan.jpg</v>
+        <v>../img/PhongTinhCuoc/TranTienAnh.jpg</v>
       </c>
       <c r="E124" t="str">
         <v>Chuyên viên</v>
@@ -2547,41 +2367,41 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B125" t="str">
-        <v>Lưu Quang Huy</v>
+        <v>Nguyễn Hồng Hà</v>
       </c>
       <c r="C125" t="str">
-        <v>Phòng Big Data</v>
+        <v>Phòng Kỹ thuật</v>
       </c>
       <c r="D125" t="str">
-        <v>../img/PhongBigData/LuuQuangHuy.jpg</v>
+        <v>../img/PhongKyThuat/NguyenHongHa.jpg</v>
       </c>
       <c r="E125" t="str">
-        <v>Chuyên viên</v>
+        <v>Phó phòng</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B126" t="str">
-        <v>Đặng Triều Dương</v>
+        <v>Phạm Thị Hạnh</v>
       </c>
       <c r="C126" t="str">
-        <v>Phòng Kinh doanh</v>
+        <v>Phòng Tổng hợp</v>
       </c>
       <c r="D126" t="str">
-        <v>../img/PhongKinhdoanh/DangTrieuDuong.jpg</v>
+        <v>../img/PhongTongHop/PhamThiHanh.jpg</v>
       </c>
       <c r="E126" t="str">
-        <v>Trưởng phòng</v>
+        <v>Chuyên viên</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E126"/>
   </ignoredErrors>
 </worksheet>
 </file>